--- a/Dataset/DTI-Dataset-Info.xlsx
+++ b/Dataset/DTI-Dataset-Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Oblongata/BRAIN_Cloud/BRAIN_projects/group-ABrIL/Datasets/Dataset_DTI/DTI_projeto2AM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AIB\BMIA-Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C05D50-8EAD-FA42-847A-8CD43B227C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC0CE0-39B7-47F2-AC04-5386BC9BFCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{C13EBED7-09D0-274A-8254-5FCD722C050D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{C13EBED7-09D0-274A-8254-5FCD722C050D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{31521A84-232A-4647-A011-71045EA2E3AC}" name="PDAM_DemografGeral" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Volumes/Oblongata/BRAIN_Cloud/BRAIN_projects/group-ABrIL/Datasets/Dataset_DTI/DTI_projeto2AM/PDAM_DemografGeral.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Volumes/Oblongata/BRAIN_Cloud/BRAIN_projects/group-ABrIL/Datasets/Dataset_DTI/DTI_projeto2AM/PDAM_DemografGeral.csv" decimal="," thousands=" " comma="1">
       <textFields count="53">
         <textField/>
         <textField/>
@@ -2011,8 +2011,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,9 +2038,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2075,7 +2078,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2181,7 +2184,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2323,7 +2326,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2331,61 +2334,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5F048B-B107-2846-8A59-043228ADDE51}">
-  <dimension ref="A1:BA47"/>
+  <dimension ref="A1:BA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.8125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.8125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.8125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="17.8125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.8125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.3125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.1875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.8125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.3125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.1875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="22" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.6875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="3.3125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.6875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.1875" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="3.3125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2546,5302 +2551,7661 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>82</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W2" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>117</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>72</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>45</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
         <v>118</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="1">
         <v>75</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>43</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>116</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>68</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="1">
         <v>48</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>57</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>124</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>83</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>41</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>136</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>91</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>45</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>100</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>67</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>33</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>121</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>84</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>36</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>124</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>88</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>36</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>114</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>77</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>37</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AP4" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="W5" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AD5">
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
         <v>133</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>80</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>53</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>140</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>84</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>55</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>116</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="1">
         <v>70</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="1">
         <v>47</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AP5" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>135</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>70</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>28</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>-1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>0</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>130</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="1">
         <v>66</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>64</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <v>135</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="1">
         <v>68</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="1">
         <v>67</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="1">
         <v>123</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="1">
         <v>64</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="1">
         <v>60</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AP6" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>135</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>70</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>65</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <v>145</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>74</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="1">
         <v>71</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="1">
         <v>113</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="1">
         <v>59</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="1">
         <v>53</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>175</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>67</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>26</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>0</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>155</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="1">
         <v>85</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="1">
         <v>70</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <v>161</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="1">
         <v>89</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="1">
         <v>72</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="1">
         <v>142</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="1">
         <v>76</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="1">
         <v>66</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AO8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AP8" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>194</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>79</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>204</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>53</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>3</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>129</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>86</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="1">
         <v>43</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <v>135</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="1">
         <v>91</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="1">
         <v>45</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="1">
         <v>111</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="1">
         <v>72</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="1">
         <v>39</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>224</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>47</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>26</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>127</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="1">
         <v>84</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="1">
         <v>43</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <v>131</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="1">
         <v>86</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="1">
         <v>44</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="1">
         <v>118</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="1">
         <v>78</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="1">
         <v>40</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AM11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AN11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="1">
         <v>15</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AP11" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>241</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>65</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>25</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>-1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>2</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="1">
         <v>126</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="1">
         <v>74</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="1">
         <v>52</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <v>130</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="1">
         <v>76</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="1">
         <v>54</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="1">
         <v>120</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="1">
         <v>71</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="1">
         <v>49</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AM12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AN12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AP12" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>260</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>64</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>0</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>273</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>70</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>26</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>20</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1">
         <v>130</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="1">
         <v>73</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="1">
         <v>57</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <v>136</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="1">
         <v>77</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="1">
         <v>58</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="1">
         <v>118</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="1">
         <v>63</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="1">
         <v>54</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AM14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN14" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AP14" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>290</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>80</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>23</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="P15" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T15" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>0</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>121</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>69</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="1">
         <v>52</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <v>125</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="1">
         <v>72</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="1">
         <v>53</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="1">
         <v>110</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="1">
         <v>59</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="1">
         <v>50</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
         <v>12</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN15" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO15" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AP15" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>300</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>65</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="W16" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>130</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>71</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="1">
         <v>59</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <v>138</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="1">
         <v>75</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="1">
         <v>62</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="1">
         <v>114</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="1">
         <v>63</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="1">
         <v>52</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AM16" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="1">
         <v>16</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AO16" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AP16" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>313</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>59</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>30</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P17" t="s">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T17" t="s">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>129</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="1">
         <v>83</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="1">
         <v>46</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <v>133</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="1">
         <v>87</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="1">
         <v>47</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="1">
         <v>112</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="1">
         <v>70</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="1">
         <v>42</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AM17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AN17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AP17" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>329</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>77</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>27</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="1">
         <v>119</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="1">
         <v>68</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="1">
         <v>51</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <v>121</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="1">
         <v>70</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="1">
         <v>50</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="1">
         <v>114</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="1">
         <v>62</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="1">
         <v>52</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM18" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AN18" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" s="1">
         <v>9</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AP18" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>339</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>76</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>25</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>11</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>1</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="T19" t="s">
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>0</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>135</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="1">
         <v>91</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="1">
         <v>44</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="1">
         <v>139</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="1">
         <v>95</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="1">
         <v>45</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="1">
         <v>124</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="1">
         <v>81</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="1">
         <v>43</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AM19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AN19" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO19" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AP19" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>352</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>64</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>28</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>126</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="1">
         <v>75</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="1">
         <v>51</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="1">
         <v>128</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="1">
         <v>76</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="1">
         <v>52</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="1">
         <v>115</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="1">
         <v>68</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="1">
         <v>47</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AM20" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AN20" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AO20" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AP20" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>364</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>62</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>30</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>24</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T21" t="s">
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>129</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="1">
         <v>71</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="1">
         <v>58</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="1">
         <v>131</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="1">
         <v>71</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="1">
         <v>60</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="1">
         <v>126</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="1">
         <v>72</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="1">
         <v>54</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AM21" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AN21" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AO21" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AP21" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>374</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>78</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>29</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>18</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>27</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>0</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>122</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="1">
         <v>67</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="1">
         <v>54</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="1">
         <v>130</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="1">
         <v>73</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="1">
         <v>56</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="1">
         <v>105</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="1">
         <v>55</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="1">
         <v>50</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AM22" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AN22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AO22" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AP22" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>385</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>77</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>24</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>14</v>
       </c>
-      <c r="L23" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="T23" t="s">
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD23">
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1">
         <v>142</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="1">
         <v>81</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="1">
         <v>62</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="1">
         <v>146</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="1">
         <v>85</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="1">
         <v>61</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="1">
         <v>135</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="1">
         <v>72</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="1">
         <v>64</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AM23" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AN23" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AO23" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AP23" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>392</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>67</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>24</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24">
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1">
         <v>135</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="1">
         <v>86</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="1">
         <v>49</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="1">
         <v>139</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="1">
         <v>91</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="1">
         <v>49</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="1">
         <v>123</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="1">
         <v>71</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="1">
         <v>52</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AM24" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="1">
         <v>22</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AO24" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AP24" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>403</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>70</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>22</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>9</v>
       </c>
-      <c r="K25" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="U25" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="1">
         <v>122</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="1">
         <v>65</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="1">
         <v>57</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="1">
         <v>123</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="1">
         <v>66</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="1">
         <v>56</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="1">
         <v>119</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="1">
         <v>61</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="1">
         <v>58</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AM25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AN25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AO25">
+      <c r="AO25" s="1">
         <v>48</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AP25" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>413</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>67</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>30</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>-1</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W26" t="s">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="1">
         <v>133</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="1">
         <v>71</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="1">
         <v>62</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="1">
         <v>139</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="1">
         <v>75</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="1">
         <v>64</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="1">
         <v>125</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="1">
         <v>66</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="1">
         <v>60</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AM26" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="1">
         <v>12</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AO26" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AP26" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>422</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>64</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>28</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W27" t="s">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Z27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>0</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AC27" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>129</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="1">
         <v>78</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="1">
         <v>51</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="1">
         <v>134</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="1">
         <v>81</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="1">
         <v>53</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="1">
         <v>109</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="1">
         <v>67</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="1">
         <v>42</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AM27" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AN27" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AO27" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AP27" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>436</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>57</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>28</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>26</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P28" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="T28" t="s">
+      <c r="S28" s="1"/>
+      <c r="T28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X28" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Z28" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AC28" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="1">
         <v>135</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="1">
         <v>78</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="1">
         <v>58</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="1">
         <v>136</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="1">
         <v>79</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="1">
         <v>56</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="1">
         <v>134</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="1">
         <v>74</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="1">
         <v>60</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AM28" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AN28" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AO28">
+      <c r="AO28" s="1">
         <v>19</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AP28" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>446</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>77</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>28</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>23</v>
       </c>
-      <c r="K29" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="P29" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="T29" t="s">
+      <c r="S29" s="1"/>
+      <c r="T29" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>1</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X29" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC29" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="1">
         <v>135</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="1">
         <v>83</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="1">
         <v>52</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="1">
         <v>140</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="1">
         <v>86</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="1">
         <v>54</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="1">
         <v>124</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="1">
         <v>77</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="1">
         <v>47</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AM29" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AN29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AO29" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AP29" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>454</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>69</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>28</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>19</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>-1</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V30" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X30" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Z30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB30" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC30" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>126</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="1">
         <v>66</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="1">
         <v>60</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="1">
         <v>126</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="1">
         <v>66</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="1">
         <v>59</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" s="1">
         <v>126</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" s="1">
         <v>64</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" s="1">
         <v>62</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" s="1">
         <v>0</v>
       </c>
-      <c r="AN30">
+      <c r="AN30" s="1">
         <v>3</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AO30" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AP30" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>465</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>49</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>28</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>22</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="W31" t="s">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Z31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AD31">
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1">
         <v>104</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="1">
         <v>71</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="1">
         <v>33</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="1">
         <v>106</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="1">
         <v>73</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="1">
         <v>33</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ31" s="1">
         <v>99</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="1">
         <v>64</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="1">
         <v>36</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AM31" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AN31" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AO31" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP31" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>472</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>61</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>30</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>24</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>1</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V32" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W32" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X32" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Z32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <v>0</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AB32" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AC32" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="1">
         <v>138</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="1">
         <v>81</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="1">
         <v>57</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="1">
         <v>149</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="1">
         <v>90</v>
       </c>
-      <c r="AI32">
+      <c r="AI32" s="1">
         <v>60</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ32" s="1">
         <v>128</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" s="1">
         <v>72</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" s="1">
         <v>55</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AM32" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="AN32">
+      <c r="AN32" s="1">
         <v>20</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AO32" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AP32" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>483</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>56</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>5</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>28</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>29</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>-1</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T33" t="s">
+      <c r="S33" s="1"/>
+      <c r="T33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="X33" t="s">
+      <c r="X33" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>1</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AA33" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AB33" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AC33" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="1">
         <v>153</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="1">
         <v>89</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="1">
         <v>64</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="1">
         <v>165</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="1">
         <v>97</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="1">
         <v>68</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="1">
         <v>120</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="1">
         <v>67</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="1">
         <v>53</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="AM33" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AN33" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AO33" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AP33" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>500</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>64</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>29</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>23</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W34" t="s">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="X34" t="s">
+      <c r="X34" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Z34" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="1">
         <v>0</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB34" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="1">
         <v>131</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="1">
         <v>71</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="1">
         <v>60</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="1">
         <v>136</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="1">
         <v>74</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="1">
         <v>62</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="1">
         <v>117</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="1">
         <v>63</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="1">
         <v>54</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="1">
         <v>14</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AN34" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AO34" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AP34" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>510</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>57</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>21</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>-2</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W35" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="X35" t="s">
+      <c r="X35" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Z35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="1">
         <v>0</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AB35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="1">
         <v>151</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="1">
         <v>88</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="1">
         <v>63</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="1">
         <v>158</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="1">
         <v>92</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="1">
         <v>65</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" s="1">
         <v>134</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="1">
         <v>76</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="1">
         <v>58</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AM35" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AN35" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AO35" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AP35" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>519</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>63</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>29</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>21</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AD36">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1">
         <v>137</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="1">
         <v>75</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" s="1">
         <v>62</v>
       </c>
-      <c r="AG36">
+      <c r="AG36" s="1">
         <v>144</v>
       </c>
-      <c r="AH36">
+      <c r="AH36" s="1">
         <v>81</v>
       </c>
-      <c r="AI36">
+      <c r="AI36" s="1">
         <v>63</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ36" s="1">
         <v>120</v>
       </c>
-      <c r="AK36">
+      <c r="AK36" s="1">
         <v>60</v>
       </c>
-      <c r="AL36">
+      <c r="AL36" s="1">
         <v>60</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AM36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AN36" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AO36" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AP36" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>525</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>62</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>30</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>21</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>-1</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="AD37">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1">
         <v>148</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="1">
         <v>87</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="1">
         <v>61</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="1">
         <v>156</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="1">
         <v>93</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" s="1">
         <v>63</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" s="1">
         <v>129</v>
       </c>
-      <c r="AK37">
+      <c r="AK37" s="1">
         <v>74</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" s="1">
         <v>56</v>
       </c>
-      <c r="AM37" t="s">
+      <c r="AM37" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AN37" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AO37" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AP37" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>532</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>76</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>6</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>29</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>22</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="W38" t="s">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X38" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Z38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AA38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AD38">
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1">
         <v>135</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="1">
         <v>65</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="1">
         <v>70</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="1">
         <v>137</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="1">
         <v>66</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" s="1">
         <v>70</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="1">
         <v>133</v>
       </c>
-      <c r="AK38">
+      <c r="AK38" s="1">
         <v>64</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="1">
         <v>69</v>
       </c>
-      <c r="AM38" t="s">
+      <c r="AM38" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AN38">
+      <c r="AN38" s="1">
         <v>3</v>
       </c>
-      <c r="AO38">
+      <c r="AO38" s="1">
         <v>24</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AP38" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>541</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>53</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>2</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>28</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>18</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="W39" t="s">
+      <c r="W39" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="X39" t="s">
+      <c r="X39" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Z39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="1">
         <v>10</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AB39" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="1">
         <v>126</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="1">
         <v>84</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="1">
         <v>41</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="1">
         <v>130</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="1">
         <v>88</v>
       </c>
-      <c r="AI39">
+      <c r="AI39" s="1">
         <v>42</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ39" s="1">
         <v>114</v>
       </c>
-      <c r="AK39">
+      <c r="AK39" s="1">
         <v>74</v>
       </c>
-      <c r="AL39">
+      <c r="AL39" s="1">
         <v>40</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AM39" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AN39" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AO39" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AP39" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>555</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>57</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>29</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>24</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>-6</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="T40" t="s">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="V40" t="s">
+      <c r="V40" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="X40" t="s">
+      <c r="X40" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Z40" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AA40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AD40">
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1">
         <v>147</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="1">
         <v>90</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="1">
         <v>57</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="1">
         <v>148</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="1">
         <v>93</v>
       </c>
-      <c r="AI40">
+      <c r="AI40" s="1">
         <v>55</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ40" s="1">
         <v>144</v>
       </c>
-      <c r="AK40">
+      <c r="AK40" s="1">
         <v>80</v>
       </c>
-      <c r="AL40">
+      <c r="AL40" s="1">
         <v>64</v>
       </c>
-      <c r="AM40" t="s">
+      <c r="AM40" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AN40">
+      <c r="AN40" s="1">
         <v>14</v>
       </c>
-      <c r="AO40">
+      <c r="AO40" s="1">
         <v>23</v>
       </c>
-      <c r="AP40" t="s">
+      <c r="AP40" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>563</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>71</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>0</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>27</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T41" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="X41" t="s">
+      <c r="X41" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Z41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="1">
         <v>0</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AB41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC41" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="1">
         <v>171</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="1">
         <v>73</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="1">
         <v>97</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="1">
         <v>178</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="1">
         <v>78</v>
       </c>
-      <c r="AI41">
+      <c r="AI41" s="1">
         <v>101</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="1">
         <v>150</v>
       </c>
-      <c r="AK41">
+      <c r="AK41" s="1">
         <v>62</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="1">
         <v>88</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AM41" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AN41" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AO41" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AP41" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>575</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>56</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>28</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>19</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="V42" t="s">
+      <c r="V42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="X42" t="s">
+      <c r="X42" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Z42" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="1">
         <v>0</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB42" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC42" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="1">
         <v>122</v>
       </c>
-      <c r="AE42">
+      <c r="AE42" s="1">
         <v>73</v>
       </c>
-      <c r="AF42">
+      <c r="AF42" s="1">
         <v>49</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="1">
         <v>135</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" s="1">
         <v>81</v>
       </c>
-      <c r="AI42">
+      <c r="AI42" s="1">
         <v>54</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ42" s="1">
         <v>106</v>
       </c>
-      <c r="AK42">
+      <c r="AK42" s="1">
         <v>64</v>
       </c>
-      <c r="AL42">
+      <c r="AL42" s="1">
         <v>42</v>
       </c>
-      <c r="AM42" t="s">
+      <c r="AM42" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="AN42">
+      <c r="AN42" s="1">
         <v>21</v>
       </c>
-      <c r="AO42" t="s">
+      <c r="AO42" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AP42" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>587</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>60</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>29</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>20</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="V43" t="s">
+      <c r="V43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="X43" t="s">
+      <c r="X43" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Y43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Z43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43">
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1">
         <v>160</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="1">
         <v>94</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="1">
         <v>66</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="1">
         <v>166</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="1">
         <v>99</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" s="1">
         <v>67</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" s="1">
         <v>149</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" s="1">
         <v>86</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="1">
         <v>64</v>
       </c>
-      <c r="AM43" t="s">
+      <c r="AM43" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AN43" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="AO43" t="s">
+      <c r="AO43" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="AP43" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>595</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>77</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>28</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>17</v>
       </c>
-      <c r="K44" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T44" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="W44" t="s">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X44" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Y44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Z44" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="1">
         <v>0</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB44" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AC44" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="1">
         <v>145</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="1">
         <v>83</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" s="1">
         <v>62</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="1">
         <v>154</v>
       </c>
-      <c r="AH44">
+      <c r="AH44" s="1">
         <v>87</v>
       </c>
-      <c r="AI44">
+      <c r="AI44" s="1">
         <v>67</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="1">
         <v>127</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="1">
         <v>75</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="1">
         <v>52</v>
       </c>
-      <c r="AM44" t="s">
+      <c r="AM44" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AN44" t="s">
+      <c r="AN44" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="AO44" t="s">
+      <c r="AO44" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="AP44" t="s">
+      <c r="AP44" s="1" t="s">
         <v>605</v>
       </c>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>606</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>63</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>4</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>29</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>23</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S45" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X45" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Z45" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA45" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC45" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="1">
         <v>141</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="1">
         <v>84</v>
       </c>
-      <c r="AF45">
+      <c r="AF45" s="1">
         <v>57</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="1">
         <v>144</v>
       </c>
-      <c r="AH45">
+      <c r="AH45" s="1">
         <v>86</v>
       </c>
-      <c r="AI45">
+      <c r="AI45" s="1">
         <v>58</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="1">
         <v>133</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="1">
         <v>78</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="1">
         <v>55</v>
       </c>
-      <c r="AM45" t="s">
+      <c r="AM45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AN45" t="s">
+      <c r="AN45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO45">
+      <c r="AO45" s="1">
         <v>20</v>
       </c>
-      <c r="AP45" t="s">
+      <c r="AP45" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>617</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>58</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>26</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>21</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>621</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>68</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>24</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>18</v>
       </c>
-      <c r="K47" t="s">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>-2</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T47" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Y47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Z47" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="1">
         <v>0</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" s="1" t="s">
         <v>627</v>
       </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+    </row>
+    <row r="52" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+    </row>
+    <row r="53" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+    </row>
+    <row r="54" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+    </row>
+    <row r="55" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+    </row>
+    <row r="56" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+    </row>
+    <row r="57" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+    </row>
+    <row r="58" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+    </row>
+    <row r="59" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+    </row>
+    <row r="60" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+    </row>
+    <row r="61" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+    </row>
+    <row r="62" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+    </row>
+    <row r="63" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+    </row>
+    <row r="64" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+    </row>
+    <row r="65" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+    </row>
+    <row r="66" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+    </row>
+    <row r="67" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+    </row>
+    <row r="68" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+    </row>
+    <row r="69" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+    </row>
+    <row r="70" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
+    <row r="71" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+    </row>
+    <row r="72" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+    </row>
+    <row r="73" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+    </row>
+    <row r="74" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+    </row>
+    <row r="75" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+    </row>
+    <row r="76" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+    </row>
+    <row r="77" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+    </row>
+    <row r="78" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+    </row>
+    <row r="79" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+    </row>
+    <row r="80" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+    </row>
+    <row r="81" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+    </row>
+    <row r="82" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+    </row>
+    <row r="83" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+    </row>
+    <row r="84" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+    </row>
+    <row r="85" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+    </row>
+    <row r="86" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+    </row>
+    <row r="87" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+    </row>
+    <row r="88" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+    </row>
+    <row r="89" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+    </row>
+    <row r="90" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+    </row>
+    <row r="91" spans="2:45" x14ac:dyDescent="0.5">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
